--- a/artfynd/A 61610-2019.xlsx
+++ b/artfynd/A 61610-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74083298</v>
+        <v>74302538</v>
       </c>
       <c r="B2" t="n">
-        <v>101808</v>
+        <v>96309</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>223825</v>
+        <v>219797</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Åkerkål</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. campestris</t>
+          <t>Epipactis atrorubens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) A. R. Clapham</t>
+          <t>(Hoffm.) Besser</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>19 NO Strömserum, Sm</t>
+          <t>18 S Sinnerboviken, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>561551.4394997598</v>
+        <v>561645.2683258571</v>
       </c>
       <c r="R2" t="n">
-        <v>6326988.992090961</v>
+        <v>6327489.84356571</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3427. SOM: Brassica rapa ssp. campestris. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Epipactis atrorubens. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -784,7 +784,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Åker</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74302538</v>
+        <v>74948080</v>
       </c>
       <c r="B3" t="n">
-        <v>96309</v>
+        <v>108194</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219797</v>
+        <v>219711</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Epipactis atrorubens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hoffm.) Besser</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Epipactis atrorubens. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Sanicula europaea. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,7 +910,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Översilad skogsbacke</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74948080</v>
+        <v>74083298</v>
       </c>
       <c r="B4" t="n">
-        <v>108194</v>
+        <v>101808</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,38 +944,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219711</v>
+        <v>223825</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Åkerkål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Brassica rapa subsp. campestris</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) A. R. Clapham</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>18 S Sinnerboviken, Sm</t>
+          <t>19 NO Strömserum, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>561645.2683258571</v>
+        <v>561551.4394997598</v>
       </c>
       <c r="R4" t="n">
-        <v>6327489.84356571</v>
+        <v>6326988.992090961</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Sanicula europaea. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3427. SOM: Brassica rapa ssp. campestris. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Översilad skogsbacke</t>
+          <t>Åker</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>

--- a/artfynd/A 61610-2019.xlsx
+++ b/artfynd/A 61610-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74302538</v>
+        <v>74083298</v>
       </c>
       <c r="B2" t="n">
-        <v>96309</v>
+        <v>101808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219797</v>
+        <v>223825</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Purpurknipprot</t>
+          <t>Åkerkål</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Epipactis atrorubens</t>
+          <t>Brassica rapa subsp. campestris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Besser</t>
+          <t>(L.) A. R. Clapham</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18 S Sinnerboviken, Sm</t>
+          <t>19 NO Strömserum, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>561645.2683258571</v>
+        <v>561551.4394997598</v>
       </c>
       <c r="R2" t="n">
-        <v>6327489.84356571</v>
+        <v>6326988.992090961</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Epipactis atrorubens. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3427. SOM: Brassica rapa ssp. campestris. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -784,7 +784,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Åker</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -806,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74948080</v>
+        <v>74302538</v>
       </c>
       <c r="B3" t="n">
-        <v>108194</v>
+        <v>96309</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>219711</v>
+        <v>219797</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Purpurknipprot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Epipactis atrorubens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Besser</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -896,7 +896,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Sanicula europaea. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Epipactis atrorubens. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,7 +910,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Översilad skogsbacke</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74083298</v>
+        <v>74948080</v>
       </c>
       <c r="B4" t="n">
-        <v>101808</v>
+        <v>108194</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,38 +944,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223825</v>
+        <v>219711</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åkerkål</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Brassica rapa subsp. campestris</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) A. R. Clapham</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>19 NO Strömserum, Sm</t>
+          <t>18 S Sinnerboviken, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>561551.4394997598</v>
+        <v>561645.2683258571</v>
       </c>
       <c r="R4" t="n">
-        <v>6326988.992090961</v>
+        <v>6327489.84356571</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Smålands flora 2007: KOO: 5G5c 3427. SOM: Brassica rapa ssp. campestris. LEG: Jörgen Andersson</t>
+          <t>Smålands flora 2007: KOO: 5G5c 3928. SOM: Sanicula europaea. LEG: Jörgen Andersson</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Åker</t>
+          <t>Översilad skogsbacke</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
